--- a/テンプレート/合計残高試算表テンプレート.xlsx
+++ b/テンプレート/合計残高試算表テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCDE31B-5FBF-4840-8921-2C769FD19FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B78AA-AC45-474D-9B03-2ABE9A993AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="残高テンプレート" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="3級テキスト 例8-1 318p" sheetId="2" r:id="rId3"/>
     <sheet name="3級テキスト 例8-2 325p" sheetId="4" r:id="rId4"/>
     <sheet name="3級テキスト 例8-3 327p" sheetId="5" r:id="rId5"/>
+    <sheet name="3級テキスト 確認テスト 363p" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>借方合計</t>
     <rPh sb="0" eb="2">
@@ -275,7 +276,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="190" formatCode="#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -802,89 +803,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83509D01-330C-4778-A83B-8CFABA8EBEE1}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,11 +1182,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1412,7 @@
     </row>
     <row r="31" spans="2:6" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="str" cm="1">
+      <c r="B32" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>残高テンプレート</v>
       </c>
@@ -1443,13 +1444,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1458,7 @@
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1477,275 +1478,275 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <v>3000</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>30000</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48">
+      <c r="B30" s="47">
         <f>SUM(B4:B29)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="48">
         <f>SUM(C4:C29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="48">
         <f>SUM(D4:D29)</f>
         <v>0</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <f>SUM(F4:F29)</f>
         <v>3000</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="39">
         <f>SUM(G4:G29)</f>
         <v>30000</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="40">
         <f>SUM(H4:H29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="str" cm="1">
+      <c r="B32" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>合計取引高テンプレート</v>
       </c>
@@ -1777,11 +1778,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2041,7 +2042,7 @@
     </row>
     <row r="31" spans="2:6" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="str" cm="1">
+      <c r="B32" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>3級テキスト 例8-1 318p</v>
       </c>
@@ -2073,13 +2074,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2088,7 @@
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2112,7 +2113,7 @@
       <c r="D4" s="8">
         <v>2500</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="8">
@@ -2127,7 +2128,7 @@
       <c r="D5" s="8">
         <v>5800</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="8">
@@ -2142,7 +2143,7 @@
       <c r="D6" s="8">
         <v>1200</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="8"/>
@@ -2155,7 +2156,7 @@
       <c r="D7" s="8">
         <v>5600</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8">
@@ -2170,7 +2171,7 @@
       <c r="D8" s="8">
         <v>2100</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="8">
@@ -2183,7 +2184,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -2196,7 +2197,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="8">
@@ -2211,7 +2212,7 @@
       <c r="D11" s="8">
         <v>2500</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="8"/>
@@ -2222,7 +2223,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="16"/>
@@ -2231,7 +2232,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="16"/>
@@ -2240,7 +2241,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="16"/>
@@ -2249,7 +2250,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="16"/>
@@ -2258,7 +2259,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="16"/>
@@ -2267,7 +2268,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="16"/>
@@ -2276,7 +2277,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="16"/>
@@ -2285,7 +2286,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="16"/>
@@ -2294,7 +2295,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="16"/>
@@ -2303,7 +2304,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="16"/>
@@ -2312,7 +2313,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="16"/>
@@ -2321,7 +2322,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="16"/>
@@ -2330,7 +2331,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="16"/>
@@ -2339,7 +2340,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="16"/>
@@ -2348,7 +2349,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="16"/>
@@ -2357,7 +2358,7 @@
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="16"/>
@@ -2366,7 +2367,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="16"/>
@@ -2375,31 +2376,31 @@
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30">
         <f>SUM(D4:D29)</f>
         <v>19700</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <f>SUM(F4:F29)</f>
         <v>19700</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="2:8" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="str" cm="1">
+      <c r="B32" s="34" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>3級テキスト 例8-2 325p</v>
       </c>
@@ -2418,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0BAA4F-6C68-4AF6-AB4C-F8BA900FBB0F}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -2431,11 +2432,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2695,9 +2696,301 @@
     </row>
     <row r="31" spans="2:6" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="str" cm="1">
+      <c r="B32" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>3級テキスト 例8-3 327p</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C863A-1031-4284-BC5A-3A376743977B}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>3500</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
+        <v>5600</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1100</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10">
+        <v>2400</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2100</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
+        <v>2700</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14">
+        <f>SUM(C4:C29)</f>
+        <v>15700</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="21">
+        <f>SUM(E4:E29)</f>
+        <v>15700</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="2:6" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>3級テキスト 確認テスト 363p</v>
       </c>
     </row>
   </sheetData>
